--- a/Datos_sal/estructura_errores_mod2.xlsx
+++ b/Datos_sal/estructura_errores_mod2.xlsx
@@ -419,595 +419,595 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00304572480754572</v>
+        <v>0.000189094899743836</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00892870354527228</v>
+        <v>0.00229290042824465</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0165495000943426</v>
+        <v>0.0047509171634274</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0240288398045282</v>
+        <v>0.0065001039743809</v>
       </c>
       <c r="E2" t="n">
-        <v>0.029595350247039</v>
+        <v>0.00715736812945828</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0337458114676595</v>
+        <v>0.00780661786451392</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0364552149029621</v>
+        <v>0.00834796155302654</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0381560898844196</v>
+        <v>0.00946250465293428</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0395700219574954</v>
+        <v>0.0112913479336969</v>
       </c>
       <c r="J2" t="n">
-        <v>0.040973206669987</v>
+        <v>0.0128646005310842</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0422180898376621</v>
+        <v>0.0142102995597854</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0430785706225112</v>
+        <v>0.0151900860648983</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00665867158846911</v>
+        <v>0.00288275075713695</v>
       </c>
       <c r="B3" t="n">
-        <v>0.013869950304699</v>
+        <v>0.00541184884135097</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0208924647308683</v>
+        <v>0.00705360428833929</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0259096858586272</v>
+        <v>0.00751858201974164</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0296372908795401</v>
+        <v>0.00805143918831408</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0319985490522146</v>
+        <v>0.00850960370263281</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0334283639980774</v>
+        <v>0.00961634013915217</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0346660481712115</v>
+        <v>0.0114978964827267</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0359648710481478</v>
+        <v>0.0130939925495329</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0371263151185619</v>
+        <v>0.0144441589832385</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0378879955118586</v>
+        <v>0.0154078485869394</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0385923956471196</v>
+        <v>0.0160733214295677</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.00627329339521943</v>
+        <v>0.00172247832346528</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0111232820056693</v>
+        <v>0.00209005154835023</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0142573424811393</v>
+        <v>0.0017491146548003</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0167364568210007</v>
+        <v>0.00167421650414747</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0182498588600252</v>
+        <v>0.00175996162774325</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0191466588282193</v>
+        <v>0.00306765231712405</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0201292680250127</v>
+        <v>0.00546578531339974</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0213685496362637</v>
+        <v>0.00721290458053446</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02253133071759</v>
+        <v>0.0086086381293833</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0232539735390199</v>
+        <v>0.00952906207874279</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0239221613219027</v>
+        <v>0.0101128332239047</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0245174934424044</v>
+        <v>0.0103483454229489</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.00282534735402518</v>
+        <v>0.000793843575943143</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00329219304782699</v>
+        <v>0.00257395536880098</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00398740837299656</v>
+        <v>0.00285621251453618</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00426585839171755</v>
+        <v>0.00287050386435736</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00437829811450725</v>
+        <v>0.00264627842777143</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00500273177496045</v>
+        <v>0.00390525477514005</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00629249825356158</v>
+        <v>0.00514885722627092</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00757242815601038</v>
+        <v>0.00625087050944847</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0082800593497592</v>
+        <v>0.00694905110375476</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00896356073220195</v>
+        <v>0.00735172855245885</v>
       </c>
       <c r="K5" t="n">
-        <v>0.009567336126444</v>
+        <v>0.00743434284528481</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0105810284300984</v>
+        <v>0.00720658971617156</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.00162966920412799</v>
+        <v>0.00208222381328493</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00185026031876696</v>
+        <v>0.00177879710173363</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00239685908324443</v>
+        <v>0.00151020792065469</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00284754076016254</v>
+        <v>0.00227339149017842</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00261990068730015</v>
+        <v>0.00482646842446357</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0026381016892699</v>
+        <v>0.0065603589274265</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00313702929969409</v>
+        <v>0.00790948044871535</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00334873582211973</v>
+        <v>0.0087325945869329</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00370464821200854</v>
+        <v>0.00920157862453353</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00407463654437084</v>
+        <v>0.00931018914517136</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00504004037796015</v>
+        <v>0.00905495205507859</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00674569552106838</v>
+        <v>0.00873944221221079</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.00103219494367934</v>
+        <v>0.00244238011228237</v>
       </c>
       <c r="B7" t="n">
-        <v>0.000980240756210919</v>
+        <v>0.00353318343485633</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00095096021145376</v>
+        <v>0.00617525001072711</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00202155637008005</v>
+        <v>0.00951957595559136</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00393302964670134</v>
+        <v>0.0116637632066486</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00548778607779402</v>
+        <v>0.0132099055200919</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00618829415065801</v>
+        <v>0.0141206310863958</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00686488566557935</v>
+        <v>0.0146192597049183</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007442595024018</v>
+        <v>0.0147229781046165</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00851961994023751</v>
+        <v>0.0144074053289671</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0102496125333751</v>
+        <v>0.0140066054453225</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0117788573435105</v>
+        <v>0.01345116007408</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.00101950857962319</v>
+        <v>0.000151465283849461</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00141690379221635</v>
+        <v>0.0025015091130499</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00122135287425797</v>
+        <v>0.00561083144581903</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00254253753088915</v>
+        <v>0.00728626696195184</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00385879186612383</v>
+        <v>0.00850976591477936</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00434638549258453</v>
+        <v>0.00917284549851884</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00491035456842863</v>
+        <v>0.00949232425581297</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00542039386042481</v>
+        <v>0.00945850044666312</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0065451214455769</v>
+        <v>0.00907066274101104</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00841521200900641</v>
+        <v>0.0086549378136001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0100022317759526</v>
+        <v>0.00828671601926887</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0113461371975178</v>
+        <v>0.00800684040680302</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.000189094899743836</v>
+        <v>0.0038145431891321</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00229290042824465</v>
+        <v>0.00718610267833207</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0047509171634274</v>
+        <v>0.00876378455386702</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0065001039743809</v>
+        <v>0.00988601525963332</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00715736812945828</v>
+        <v>0.0104324394339922</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00780661786451392</v>
+        <v>0.0106429711172854</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00834796155302654</v>
+        <v>0.0105034062973565</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00945538496422069</v>
+        <v>0.0100069526014997</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0112732746519518</v>
+        <v>0.00949920117944713</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0128466461366721</v>
+        <v>0.00903673469135935</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0141908396330194</v>
+        <v>0.00867524890977546</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0151792899659158</v>
+        <v>0.00834654285967573</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.00288275075713695</v>
+        <v>0.00238973081235283</v>
       </c>
       <c r="B10" t="n">
-        <v>0.00541184884135097</v>
+        <v>0.00221310712058812</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00705360428833929</v>
+        <v>0.00221012317179192</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00751858201974164</v>
+        <v>0.0020553291658927</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00805143918831408</v>
+        <v>0.00187561714530274</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00850960370263281</v>
+        <v>0.00175038633322698</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00960862629509083</v>
+        <v>0.00242962838359355</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0114785126850006</v>
+        <v>0.00324764682658814</v>
       </c>
       <c r="I10" t="n">
-        <v>0.013074943296609</v>
+        <v>0.00498922715509503</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0144236616014339</v>
+        <v>0.00625816946318555</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0153965777495435</v>
+        <v>0.00704447744959054</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0160664049433077</v>
+        <v>0.00713954668684147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.00172247832346528</v>
+        <v>0.00239186719590112</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00209005154835023</v>
+        <v>0.00305884993311912</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0017491146548003</v>
+        <v>0.00385554645859847</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00167421650414747</v>
+        <v>0.00449957192789146</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00175996162774325</v>
+        <v>0.00530016577101576</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00305548075925397</v>
+        <v>0.00672297185472445</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00544011060249137</v>
+        <v>0.00792748969956822</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00719074905153938</v>
+        <v>0.00978637363919558</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00858596698153278</v>
+        <v>0.0112055326084795</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0095178960245131</v>
+        <v>0.0121350332883279</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0101066848103869</v>
+        <v>0.012336159469511</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0103385088095934</v>
+        <v>0.0120312594724519</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.000793843575943143</v>
+        <v>0.000827047829735861</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00257395536880098</v>
+        <v>0.000787976573667292</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00285621251453618</v>
+        <v>0.00072328259744124</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00287050386435736</v>
+        <v>0.000750728850677807</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00264253275817596</v>
+        <v>0.00216088289090913</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00388350043755814</v>
+        <v>0.00325311464401535</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00512918178216365</v>
+        <v>0.00532802186703687</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00622989476897419</v>
+        <v>0.00673756589088804</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00694020140096428</v>
+        <v>0.00757494079782967</v>
       </c>
       <c r="J12" t="n">
-        <v>0.00734779663956987</v>
+        <v>0.00763073645995737</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00742656949511118</v>
+        <v>0.00729749377662428</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00719678400236796</v>
+        <v>0.00699531571125448</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.00208222381328493</v>
+        <v>0.000782994920796476</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00177879710173363</v>
+        <v>0.00116087653911119</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00151020792065469</v>
+        <v>0.00202970681598535</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00225903039617989</v>
+        <v>0.00390184248666624</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0047960600922025</v>
+        <v>0.00522500241116569</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00653547105705132</v>
+        <v>0.00741973460088451</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00788444766587769</v>
+        <v>0.00891669080687451</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00872122793979164</v>
+        <v>0.0097967400806848</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0091958347521045</v>
+        <v>0.00984573430317491</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00930041471691928</v>
+        <v>0.00942432632896037</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00904255490340383</v>
+        <v>0.00904022347033389</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00872605180780598</v>
+        <v>0.00866667296111902</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.00244238011228237</v>
+        <v>0.00000181763959616887</v>
       </c>
       <c r="B14" t="n">
-        <v>0.00353318343485633</v>
+        <v>0.000855522361654251</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00615747429157181</v>
+        <v>0.00286618738997368</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00948567819278289</v>
+        <v>0.00406989845807709</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0116353713361799</v>
+        <v>0.00637054570000637</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0131817589308936</v>
+        <v>0.00783763209918939</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0141064587161234</v>
+        <v>0.00864496290146159</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0146111644602997</v>
+        <v>0.00858912839495094</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0147108899035133</v>
+        <v>0.00812418551992946</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0143920823705234</v>
+        <v>0.00771815930735211</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0139896786575685</v>
+        <v>0.00736027672024591</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0135316035810172</v>
+        <v>0.00705185170120391</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.000151465283849461</v>
+        <v>0.00121331060299656</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00247656215310077</v>
+        <v>0.00351404821421334</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00557014418268829</v>
+        <v>0.00470373852500934</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0072550496237686</v>
+        <v>0.0071268663411251</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00847963081476931</v>
+        <v>0.00859030230786514</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0091592453048662</v>
+        <v>0.00934239474918559</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00948547287860613</v>
+        <v>0.0091870117778295</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0094472362836389</v>
+        <v>0.00862166702991275</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00905690577185304</v>
+        <v>0.00814013682410728</v>
       </c>
       <c r="J15" t="n">
-        <v>0.00864044645385641</v>
+        <v>0.00772374658906264</v>
       </c>
       <c r="K15" t="n">
-        <v>0.00823981756160434</v>
+        <v>0.00736949600024266</v>
       </c>
       <c r="L15"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0037792091866935</v>
+        <v>0.0025793236691678</v>
       </c>
       <c r="B16" t="n">
-        <v>0.00713614673815858</v>
+        <v>0.00307889479728456</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00872758485384191</v>
+        <v>0.005442442654035</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00985219091795177</v>
+        <v>0.00665825965385098</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0104173972153713</v>
+        <v>0.00718635656526592</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0106354514919189</v>
+        <v>0.00685181810803247</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0104912311822745</v>
+        <v>0.00636167476813394</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00999211950454913</v>
+        <v>0.00598622708963998</v>
       </c>
       <c r="I16" t="n">
-        <v>0.00948357215878038</v>
+        <v>0.00576540598653844</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00900140357778295</v>
+        <v>0.00551100206410359</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0023923665722192</v>
+        <v>0.00126029812888717</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0022439237624207</v>
+        <v>0.0017274990441961</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00225264503054621</v>
+        <v>0.00194508470716094</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0021164580453621</v>
+        <v>0.00186823980426013</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00194070626200639</v>
+        <v>0.00200471977723274</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00180426065865639</v>
+        <v>0.00388286129979889</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00245282753614904</v>
+        <v>0.0048747021975488</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00325177979268819</v>
+        <v>0.00581470811675162</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00421760116461057</v>
+        <v>0.00619816514169062</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -1015,28 +1015,28 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.00233202021810186</v>
+        <v>0.00442246525274292</v>
       </c>
       <c r="B18" t="n">
-        <v>0.00299971599242006</v>
+        <v>0.00492683909227809</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00376372167115921</v>
+        <v>0.00497752347247237</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00440067776439705</v>
+        <v>0.00434725549922881</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00521944117711261</v>
+        <v>0.00444452641028206</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00666095332632871</v>
+        <v>0.00458718181546982</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00787355842214732</v>
+        <v>0.0049754719252769</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00906807487503596</v>
+        <v>0.00503438436624933</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -1045,25 +1045,25 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.000776812132763816</v>
+        <v>0.00278346689398656</v>
       </c>
       <c r="B19" t="n">
-        <v>0.000756969085461303</v>
+        <v>0.00447020468857089</v>
       </c>
       <c r="C19" t="n">
-        <v>0.000688350590525001</v>
+        <v>0.0073484481091654</v>
       </c>
       <c r="D19" t="n">
-        <v>0.000763524599661375</v>
+        <v>0.0108121156428032</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00222403471357064</v>
+        <v>0.012535329112032</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00333066849131094</v>
+        <v>0.0138425190707409</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00450926984938994</v>
+        <v>0.0143734315933842</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -1073,22 +1073,22 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.000701056871173833</v>
+        <v>0.000541070704052515</v>
       </c>
       <c r="B20" t="n">
-        <v>0.00108743632231938</v>
+        <v>0.00305970230630726</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00199641417194441</v>
+        <v>0.00620122564659881</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00388746315471904</v>
+        <v>0.00728920868554469</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00521275304414279</v>
+        <v>0.00820548354668938</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00650385788136494</v>
+        <v>0.00843473047165011</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -1099,19 +1099,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0000741829106392089</v>
+        <v>0.00329710697071928</v>
       </c>
       <c r="B21" t="n">
-        <v>0.000987358965871893</v>
+        <v>0.00645982086496855</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00301613363041614</v>
+        <v>0.00715545168055173</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00423697955183774</v>
+        <v>0.00783799240996244</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00548152041980653</v>
+        <v>0.0078640584769839</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -1123,16 +1123,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.00125714461743787</v>
+        <v>0.00246216774691632</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0035452751085767</v>
+        <v>0.00176632211134729</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00472493697885559</v>
+        <v>0.00148474863522086</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00595168904122234</v>
+        <v>0.00145760430693607</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -1145,13 +1145,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.00253104721815678</v>
+        <v>0.00412951484759283</v>
       </c>
       <c r="B23" t="n">
-        <v>0.00300357763905099</v>
+        <v>0.00479929389008437</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00387187946518883</v>
+        <v>0.00612707790199198</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -1165,10 +1165,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.00126989829389501</v>
+        <v>0.00222686008955808</v>
       </c>
       <c r="B24" t="n">
-        <v>0.00113348713346652</v>
+        <v>0.00204569298691562</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.0013659694276793</v>
+        <v>0.00225059521058402</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>

--- a/Datos_sal/estructura_errores_mod2.xlsx
+++ b/Datos_sal/estructura_errores_mod2.xlsx
@@ -419,595 +419,595 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.000189094899743836</v>
+        <v>0.00244238008256925</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00229290042824465</v>
+        <v>0.00353318336545636</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0047509171634274</v>
+        <v>0.00617524990083813</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0065001039743809</v>
+        <v>0.00951957580678674</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00715736812945828</v>
+        <v>0.0116637630172437</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00780661786451392</v>
+        <v>0.0132099052977561</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00834796155302654</v>
+        <v>0.0141206308298382</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00946250465293428</v>
+        <v>0.0146192594223433</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0112913479336969</v>
+        <v>0.0147229778038046</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0128646005310842</v>
+        <v>0.0144074050157856</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0142102995597854</v>
+        <v>0.0140066051218847</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0151900860648983</v>
+        <v>0.013451159753295</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00288275075713695</v>
+        <v>0.000151465284429442</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00541184884135097</v>
+        <v>0.00250150911228125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00705360428833929</v>
+        <v>0.00561083144496203</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00751858201974164</v>
+        <v>0.00728626696092478</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00805143918831408</v>
+        <v>0.00850976591351137</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00850960370263281</v>
+        <v>0.00917284549710259</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00961634013915217</v>
+        <v>0.00949232425422627</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0114978964827267</v>
+        <v>0.0094585004449071</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0130939925495329</v>
+        <v>0.00907066273920572</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0144441589832385</v>
+        <v>0.00865493781180123</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0154078485869394</v>
+        <v>0.00828671601764613</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0160733214295677</v>
+        <v>0.00800684040539673</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.00172247832346528</v>
+        <v>0.0038145431900789</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00209005154835023</v>
+        <v>0.00718610268062892</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0017491146548003</v>
+        <v>0.00876378455720842</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00167421650414747</v>
+        <v>0.00988601526406115</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00175996162774325</v>
+        <v>0.0104324394395268</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00306765231712405</v>
+        <v>0.0106429711238965</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00546578531339974</v>
+        <v>0.010503406304823</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00721290458053446</v>
+        <v>0.0100069526093559</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0086086381293833</v>
+        <v>0.00949920118741533</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00952906207874279</v>
+        <v>0.00903673469851177</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0101128332239047</v>
+        <v>0.00867524891595853</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0103483454229489</v>
+        <v>0.00834654286506908</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.000793843575943143</v>
+        <v>0.00238972992031528</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00257395536880098</v>
+        <v>0.00221310583839735</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00285621251453618</v>
+        <v>0.00221012176776939</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00287050386435736</v>
+        <v>0.00205532699523641</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00264627842777143</v>
+        <v>0.00187561465298415</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00390525477514005</v>
+        <v>0.00175038464538245</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00514885722627092</v>
+        <v>0.0024296298810152</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00625087050944847</v>
+        <v>0.00324765085894375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00694905110375476</v>
+        <v>0.0049892327363201</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00735172855245885</v>
+        <v>0.00625817632601084</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00743434284528481</v>
+        <v>0.0070444854680022</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00720658971617156</v>
+        <v>0.00713962429770822</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.00208222381328493</v>
+        <v>0.00239186719864204</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00177879710173363</v>
+        <v>0.00305884993791666</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00151020792065469</v>
+        <v>0.00385554646530816</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00227339149017842</v>
+        <v>0.00449957193528507</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00482646842446357</v>
+        <v>0.00530016577781364</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0065603589274265</v>
+        <v>0.00672297185959227</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00790948044871535</v>
+        <v>0.00792748970224845</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0087325945869329</v>
+        <v>0.009786373639006</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00920157862453353</v>
+        <v>0.0112055326058074</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00931018914517136</v>
+        <v>0.012135033283672</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00905495205507859</v>
+        <v>0.0123361816496052</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00873944221221079</v>
+        <v>0.0120313081845058</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.00244238011228237</v>
+        <v>0.00082704782788845</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00353318343485633</v>
+        <v>0.000787976574078821</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00617525001072711</v>
+        <v>0.000723282601183167</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00951957595559136</v>
+        <v>0.000750728845763598</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0116637632066486</v>
+        <v>0.00216088287106792</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0132099055200919</v>
+        <v>0.00325311461435729</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0141206310863958</v>
+        <v>0.00532802183089969</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0146192597049183</v>
+        <v>0.00673756584915684</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0147229781046165</v>
+        <v>0.00757494075199025</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0144074053289671</v>
+        <v>0.00763072551074612</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0140066054453225</v>
+        <v>0.00729747765576614</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01345116007408</v>
+        <v>0.00699529471235806</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.000151465283849461</v>
+        <v>0.000782994922419178</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0025015091130499</v>
+        <v>0.00116087654234229</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00561083144581903</v>
+        <v>0.00202970682107659</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00728626696195184</v>
+        <v>0.00390184249357477</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00850976591477936</v>
+        <v>0.00522500241994879</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00917284549851884</v>
+        <v>0.00741973461106876</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00949232425581297</v>
+        <v>0.00891669081835738</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00945850044666312</v>
+        <v>0.00979674009321217</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00907066274101104</v>
+        <v>0.00984572302807704</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0086549378136001</v>
+        <v>0.00942430589746803</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00828671601926887</v>
+        <v>0.00904019173154178</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00800684040680302</v>
+        <v>0.00866663731624204</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0038145431891321</v>
+        <v>0.00000181765213103091</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00718610267833207</v>
+        <v>0.000855522332326968</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00876378455386702</v>
+        <v>0.00286618734138847</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00988601525963332</v>
+        <v>0.004069898388691</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0104324394339922</v>
+        <v>0.00637054561448776</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0106429711172854</v>
+        <v>0.00783763200089958</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0105034062973565</v>
+        <v>0.00864496279445322</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0100069526014997</v>
+        <v>0.00858912803858337</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00949920117944713</v>
+        <v>0.0081241850500947</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00903673469135935</v>
+        <v>0.00771815872837471</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00867524890977546</v>
+        <v>0.0073602762116692</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00834654285967573</v>
+        <v>0.00705185123861307</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.00238973081235283</v>
+        <v>0.00121331059970853</v>
       </c>
       <c r="B10" t="n">
-        <v>0.00221310712058812</v>
+        <v>0.00351404820829779</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00221012317179192</v>
+        <v>0.00470373851669452</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0020553291658927</v>
+        <v>0.00712686633124086</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00187561714530274</v>
+        <v>0.00859030229687423</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00175038633322698</v>
+        <v>0.00934239473762207</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00242962838359355</v>
+        <v>0.00918701159605598</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00324764682658814</v>
+        <v>0.00862166676930996</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00498922715509503</v>
+        <v>0.00814013648782111</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00625816946318555</v>
+        <v>0.007723746298979</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00704447744959054</v>
+        <v>0.007369495741074</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00713954668684147</v>
+        <v>0.00715909802130062</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.00239186719590112</v>
+        <v>0.00257932366318858</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00305884993311912</v>
+        <v>0.00307889478584938</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00385554645859847</v>
+        <v>0.00544244263696173</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00449957192789146</v>
+        <v>0.00665825963247505</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00530016577101576</v>
+        <v>0.00718635654103573</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00672297185472445</v>
+        <v>0.00685180430447383</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00792748969956822</v>
+        <v>0.00636166999040542</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00978637363919558</v>
+        <v>0.00598623984835467</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0112055326084795</v>
+        <v>0.00576544701070538</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0121350332883279</v>
+        <v>0.00551103549360673</v>
       </c>
       <c r="K11" t="n">
-        <v>0.012336159469511</v>
+        <v>0.00526597920314074</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0120312594724519</v>
+        <v>0.00510193660461917</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.000827047829735861</v>
+        <v>0.00126029812416029</v>
       </c>
       <c r="B12" t="n">
-        <v>0.000787976573667292</v>
+        <v>0.00172749904744152</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00072328259744124</v>
+        <v>0.00194508471229289</v>
       </c>
       <c r="D12" t="n">
-        <v>0.000750728850677807</v>
+        <v>0.00186823980848923</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00216088289090913</v>
+        <v>0.0020046558944836</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00325311464401535</v>
+        <v>0.0038826114074717</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00532802186703687</v>
+        <v>0.00487427880290783</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00673756589088804</v>
+        <v>0.00581418914389486</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00757494079782967</v>
+        <v>0.00619777856079093</v>
       </c>
       <c r="J12" t="n">
-        <v>0.00763073645995737</v>
+        <v>0.0061163104141968</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00729749377662428</v>
+        <v>0.00594101381126985</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00699531571125448</v>
+        <v>0.00569566838362121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.000782994920796476</v>
+        <v>0.00442246525295964</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00116087653911119</v>
+        <v>0.00492683909237924</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00202970681598535</v>
+        <v>0.00497752347249412</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00390184248666624</v>
+        <v>0.00434727909661704</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00522500241116569</v>
+        <v>0.00444435630004261</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00741973460088451</v>
+        <v>0.0045867786509448</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00891669080687451</v>
+        <v>0.0049748897053612</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0097967400806848</v>
+        <v>0.00503393729930913</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00984573430317491</v>
+        <v>0.00479972171711227</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00942432632896037</v>
+        <v>0.00455753598788944</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00904022347033389</v>
+        <v>0.00439269715021233</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00866667296111902</v>
+        <v>0.00431206330180497</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.00000181763959616887</v>
+        <v>0.00278346689407627</v>
       </c>
       <c r="B14" t="n">
-        <v>0.000855522361654251</v>
+        <v>0.00447020469294412</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00286618738997368</v>
+        <v>0.00734833461178183</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00406989845807709</v>
+        <v>0.0108118390781476</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00637054570000637</v>
+        <v>0.0125348914581251</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00783763209918939</v>
+        <v>0.0138419976555211</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00864496290146159</v>
+        <v>0.0143730456968338</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00858912839495094</v>
+        <v>0.0142769880371125</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00812418551992946</v>
+        <v>0.0140244289520245</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00771815930735211</v>
+        <v>0.0136016006799759</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00736027672024591</v>
+        <v>0.0131773403734896</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00705185170120391</v>
+        <v>0.0127137354384076</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.00121331060299656</v>
+        <v>0.000541070699749291</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00351404821421334</v>
+        <v>0.00305956467141557</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00470373852500934</v>
+        <v>0.00620093274004149</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0071268663411251</v>
+        <v>0.00728876782021925</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00859030230786514</v>
+        <v>0.00820497455123487</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00934239474918559</v>
+        <v>0.00843436012189725</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0091870117778295</v>
+        <v>0.00814533538109045</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00862166702991275</v>
+        <v>0.00778948649050051</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00814013682410728</v>
+        <v>0.00737002200901195</v>
       </c>
       <c r="J15" t="n">
-        <v>0.00772374658906264</v>
+        <v>0.00699575882161242</v>
       </c>
       <c r="K15" t="n">
-        <v>0.00736949600024266</v>
+        <v>0.00668658827652037</v>
       </c>
       <c r="L15"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0025793236691678</v>
+        <v>0.00329697652378425</v>
       </c>
       <c r="B16" t="n">
-        <v>0.00307889479728456</v>
+        <v>0.00645958208420073</v>
       </c>
       <c r="C16" t="n">
-        <v>0.005442442654035</v>
+        <v>0.00715511307191236</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00665825965385098</v>
+        <v>0.00783761385620087</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00718635656526592</v>
+        <v>0.00786378699202496</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00685181810803247</v>
+        <v>0.00742495233998433</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00636167476813394</v>
+        <v>0.00697642336254542</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00598622708963998</v>
+        <v>0.00652795114963225</v>
       </c>
       <c r="I16" t="n">
-        <v>0.00576540598653844</v>
+        <v>0.00615802683630032</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00551100206410359</v>
+        <v>0.00591332958338093</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.00126029812888717</v>
+        <v>0.00246239583285046</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0017274990441961</v>
+        <v>0.00176646086741299</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00194508470716094</v>
+        <v>0.00148489847955028</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00186823980426013</v>
+        <v>0.00145698806224479</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00200471977723274</v>
+        <v>0.00244109081524043</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00388286129979889</v>
+        <v>0.00325877880802147</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0048747021975488</v>
+        <v>0.00431837606283988</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00581470811675162</v>
+        <v>0.00513843598471056</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00619816514169062</v>
+        <v>0.00609007191352512</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -1015,28 +1015,28 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.00442246525274292</v>
+        <v>0.00413016430164603</v>
       </c>
       <c r="B18" t="n">
-        <v>0.00492683909227809</v>
+        <v>0.00480016863226276</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00497752347247237</v>
+        <v>0.00612794875125237</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00434725549922881</v>
+        <v>0.00788428239519262</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00444452641028206</v>
+        <v>0.00908109849908998</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00458718181546982</v>
+        <v>0.01028422890519</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0049754719252769</v>
+        <v>0.0111681518601699</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00503438436624933</v>
+        <v>0.0121073468236984</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -1045,25 +1045,25 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.00278346689398656</v>
+        <v>0.00222638612047099</v>
       </c>
       <c r="B19" t="n">
-        <v>0.00447020468857089</v>
+        <v>0.00204439585242036</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0073484481091654</v>
+        <v>0.00168302346678072</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0108121156428032</v>
+        <v>0.00155499558239394</v>
       </c>
       <c r="E19" t="n">
-        <v>0.012535329112032</v>
+        <v>0.00204219524498947</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0138425190707409</v>
+        <v>0.00255444174360513</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0143734315933842</v>
+        <v>0.0034327560429624</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -1073,22 +1073,22 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.000541070704052515</v>
+        <v>0.00225246314586158</v>
       </c>
       <c r="B20" t="n">
-        <v>0.00305970230630726</v>
+        <v>0.00436285801473914</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00620122564659881</v>
+        <v>0.00544908705158619</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00728920868554469</v>
+        <v>0.00674438494278162</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00820548354668938</v>
+        <v>0.00764740268009406</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00843473047165011</v>
+        <v>0.00867529168398467</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -1099,19 +1099,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.00329710697071928</v>
+        <v>0.00160739893459638</v>
       </c>
       <c r="B21" t="n">
-        <v>0.00645982086496855</v>
+        <v>0.00166312995500645</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00715545168055173</v>
+        <v>0.00244167362106232</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00783799240996244</v>
+        <v>0.00296288977174058</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0078640584769839</v>
+        <v>0.00387114449110471</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -1123,16 +1123,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.00246216774691632</v>
+        <v>0.0012323470459803</v>
       </c>
       <c r="B22" t="n">
-        <v>0.00176632211134729</v>
+        <v>0.00090563429440204</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00148474863522086</v>
+        <v>0.000748845719770071</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00145760430693607</v>
+        <v>0.00110794707037471</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -1145,13 +1145,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.00412951484759283</v>
+        <v>0.00191659447302683</v>
       </c>
       <c r="B23" t="n">
-        <v>0.00479929389008437</v>
+        <v>0.00237823762034132</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00612707790199198</v>
+        <v>0.00354819192969732</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -1165,10 +1165,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.00222686008955808</v>
+        <v>0.00075348808863307</v>
       </c>
       <c r="B24" t="n">
-        <v>0.00204569298691562</v>
+        <v>0.00065342594309793</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.00225059521058402</v>
+        <v>0.00191779047916008</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
